--- a/Delete Account Test Cases V1.xlsx
+++ b/Delete Account Test Cases V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bank\Git\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Bank\banking-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85570F5E-1F28-4616-9709-60BA554D69EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45B890-993D-4F72-BD61-E9B815168A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31D02F42-F5CD-43B3-97E2-76E398540154}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10920" xr2:uid="{31D02F42-F5CD-43B3-97E2-76E398540154}"/>
   </bookViews>
   <sheets>
     <sheet name="Delete Account" sheetId="1" r:id="rId1"/>
@@ -57,100 +57,100 @@
     <t>Valid "Account No", digits only</t>
   </si>
   <si>
-    <t>1) Tipe valid "Account No"
+    <t>"Account" deleted successfully</t>
+  </si>
+  <si>
+    <t>could not connect Access denied for user 'root'@'localhost' (using password: NO)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>DA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Account No" field, digits + letter </t>
+  </si>
+  <si>
+    <t>360S60330396</t>
+  </si>
+  <si>
+    <t>"Characters are not allowed" error message</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>"Account No" field, digits + sp. characters</t>
+  </si>
+  <si>
+    <t>#360560330396</t>
+  </si>
+  <si>
+    <t>"Special characters are not allowed" error message</t>
+  </si>
+  <si>
+    <t>DA4</t>
+  </si>
+  <si>
+    <t>"Account No" field starts with space character</t>
+  </si>
+  <si>
+    <t>" 36056033039"</t>
+  </si>
+  <si>
+    <t>"First characters can not be spase" error message</t>
+  </si>
+  <si>
+    <t>DA5</t>
+  </si>
+  <si>
+    <t>"Account No" field contain space character</t>
+  </si>
+  <si>
+    <t>"36056 033039"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Account No" cannot have space" error message </t>
+  </si>
+  <si>
+    <t>DA6</t>
+  </si>
+  <si>
+    <t>"Account No" required field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empty "Customer ID" field</t>
+  </si>
+  <si>
+    <t>"Account Number must not be blank" error message</t>
+  </si>
+  <si>
+    <t>"Account Number must not be blan" error message</t>
+  </si>
+  <si>
+    <t>1) Type valid "Account No"
 2) Submit</t>
   </si>
   <si>
-    <t>"Account" deleted successfully</t>
-  </si>
-  <si>
-    <t>could not connect Access denied for user 'root'@'localhost' (using password: NO)</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>DA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Account No" field, digits + letter </t>
-  </si>
-  <si>
-    <t>360S60330396</t>
-  </si>
-  <si>
-    <t>Tipe "360S60330396" in "Account No" field</t>
-  </si>
-  <si>
-    <t>"Characters are not allowed" error message</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>DA3</t>
-  </si>
-  <si>
-    <t>"Account No" field, digits + sp. characters</t>
-  </si>
-  <si>
-    <t>#360560330396</t>
-  </si>
-  <si>
-    <t>Tipe "#360560330396" in "Account No" field</t>
-  </si>
-  <si>
-    <t>"Special characters are not allowed" error message</t>
-  </si>
-  <si>
-    <t>DA4</t>
-  </si>
-  <si>
-    <t>"Account No" field starts with space character</t>
-  </si>
-  <si>
-    <t>" 36056033039"</t>
-  </si>
-  <si>
-    <t>Tipe " 36056033039" in "Account No" field</t>
-  </si>
-  <si>
-    <t>"First characters can not be spase" error message</t>
-  </si>
-  <si>
-    <t>DA5</t>
-  </si>
-  <si>
-    <t>"Account No" field contain space character</t>
-  </si>
-  <si>
-    <t>"36056 033039"</t>
-  </si>
-  <si>
-    <t>Tipe "36056 033039" in "Account No" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Account No" cannot have space" error message </t>
-  </si>
-  <si>
-    <t>DA6</t>
-  </si>
-  <si>
-    <t>"Account No" required field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empty "Customer ID" field</t>
+    <t>Type "360S60330396" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type "#360560330396" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type " 36056033039" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type "36056 033039" in "Account No" field</t>
   </si>
   <si>
     <t>1) Navigate mouse pointer over the "Account No" field and select it
-2) Do not tipe any value in  "Account No" field
+2) Do not type any value in  "Account No" field
 3) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
-    <t>"Account Number must not be blank" error message</t>
-  </si>
-  <si>
-    <t>"Account Number must not be blan" error message</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,131 +626,131 @@
         <v>360560330396</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
